--- a/StoreManagement.Website/Resource/ImportedTemplate/Products.xlsx
+++ b/StoreManagement.Website/Resource/ImportedTemplate/Products.xlsx
@@ -1,88 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="DataImport" sheetId="1" r:id="rId1"/>
-    <sheet name="ProductGroups" sheetId="2" r:id="rId2"/>
-    <sheet name="Producers" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="ListProducerNames">Producers!$A$4:$A$100</definedName>
-    <definedName name="ListProducers">Producers!#REF!</definedName>
-    <definedName name="ListProductGrou">ProductGroups!$A$4:$A$100</definedName>
-    <definedName name="ListProductGroupID">ProductGroups!#REF!</definedName>
-    <definedName name="ListProductGroupNames">ProductGroups!$A$4:$A$100</definedName>
-    <definedName name="ListProductGroups">ProductGroups!#REF!</definedName>
+    <definedName name="ListProducerNames">#REF!</definedName>
+    <definedName name="ListProducers">#REF!</definedName>
+    <definedName name="ListProductGrou">#REF!</definedName>
+    <definedName name="ListProductGroupID">#REF!</definedName>
+    <definedName name="ListProductGroupNames">#REF!</definedName>
+    <definedName name="ListProductGroups">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="37">
-  <si>
-    <t>T_Trans_Products</t>
-  </si>
-  <si>
-    <t>ProductId</t>
-  </si>
-  <si>
-    <t>ProductName</t>
-  </si>
-  <si>
-    <t>ProductCode</t>
-  </si>
-  <si>
-    <t>Price</t>
-  </si>
-  <si>
-    <t>Cost</t>
-  </si>
-  <si>
-    <t>ProductGroup</t>
-  </si>
-  <si>
-    <t>ProducerId</t>
-  </si>
-  <si>
-    <t>TrackInventory</t>
-  </si>
-  <si>
-    <t>AllowNegative</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>VAT</t>
   </si>
   <si>
-    <t>AllowMin</t>
-  </si>
-  <si>
-    <t>AllowMax</t>
-  </si>
-  <si>
-    <t>IsManageAsSerial</t>
-  </si>
-  <si>
-    <t>IsManageAttribute</t>
-  </si>
-  <si>
-    <t>Description</t>
-  </si>
-  <si>
-    <t>Quantity</t>
-  </si>
-  <si>
-    <t>IsSelling::1,,IsActive::1,,isCombo::0,,Version::1,,StoreId::{{CurrentStore}},,NumSelling::0</t>
-  </si>
-  <si>
-    <t>Id</t>
-  </si>
-  <si>
     <t>Tên hàng hóa</t>
   </si>
   <si>
@@ -101,47 +45,35 @@
     <t>Nhà sản xuất</t>
   </si>
   <si>
-    <t>Theo dõi tồn kho</t>
-  </si>
-  <si>
-    <t>Cho phép bán âm</t>
-  </si>
-  <si>
     <t>Tồn kho tối thiểu</t>
   </si>
   <si>
     <t>Tồn kho tối đa</t>
   </si>
   <si>
-    <t>Quản lý theo Serial</t>
-  </si>
-  <si>
-    <t>Quản lý thuộc tính</t>
-  </si>
-  <si>
     <t>Mô tả</t>
   </si>
   <si>
     <t>Số lượng</t>
   </si>
   <si>
-    <t>T_Master_ProductGroups</t>
-  </si>
-  <si>
-    <t>ProducerId,ProducerName</t>
-  </si>
-  <si>
-    <t>StoreId = {{CurrentStore}} and IsActive = 1</t>
-  </si>
-  <si>
-    <t>T_Master_Producers</t>
+    <t>Cho phép bán âm?</t>
+  </si>
+  <si>
+    <t>Theo dõi tồn kho?</t>
+  </si>
+  <si>
+    <t>Quản lý theo Serial?</t>
+  </si>
+  <si>
+    <t>Quản lý thuộc tính?</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -149,13 +81,27 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -170,8 +116,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -466,219 +413,89 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P4"/>
+  <dimension ref="A1:O1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D4" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="11.75" customWidth="1"/>
-    <col min="2" max="2" width="11.375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.75" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.75" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.25" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.25" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.125" customWidth="1"/>
+    <col min="1" max="1" width="15.5703125" customWidth="1"/>
+    <col min="2" max="2" width="15" customWidth="1"/>
+    <col min="5" max="5" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.85546875" customWidth="1"/>
+    <col min="8" max="8" width="18.5703125" customWidth="1"/>
+    <col min="10" max="10" width="18.5703125" customWidth="1"/>
+    <col min="11" max="11" width="16.7109375" customWidth="1"/>
+    <col min="12" max="12" width="21.85546875" customWidth="1"/>
+    <col min="13" max="13" width="19.7109375" customWidth="1"/>
+    <col min="14" max="14" width="12.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" hidden="1">
-      <c r="A1" t="s">
+    <row r="1" spans="1:15">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:16" hidden="1">
-      <c r="A2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" hidden="1">
-      <c r="A3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F3" t="s">
-        <v>6</v>
-      </c>
-      <c r="G3" t="s">
+      <c r="J1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H3" t="s">
+      <c r="K1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="I3" t="s">
+      <c r="L1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="J3" t="s">
+      <c r="O1" s="1" t="s">
         <v>10</v>
-      </c>
-      <c r="K3" t="s">
-        <v>11</v>
-      </c>
-      <c r="L3" t="s">
-        <v>12</v>
-      </c>
-      <c r="M3" t="s">
-        <v>13</v>
-      </c>
-      <c r="N3" t="s">
-        <v>14</v>
-      </c>
-      <c r="O3" t="s">
-        <v>15</v>
-      </c>
-      <c r="P3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16">
-      <c r="A4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D4" t="s">
-        <v>21</v>
-      </c>
-      <c r="E4" t="s">
-        <v>22</v>
-      </c>
-      <c r="F4" t="s">
-        <v>23</v>
-      </c>
-      <c r="G4" t="s">
-        <v>24</v>
-      </c>
-      <c r="H4" t="s">
-        <v>25</v>
-      </c>
-      <c r="I4" t="s">
-        <v>26</v>
-      </c>
-      <c r="J4" t="s">
-        <v>10</v>
-      </c>
-      <c r="K4" t="s">
-        <v>27</v>
-      </c>
-      <c r="L4" t="s">
-        <v>28</v>
-      </c>
-      <c r="M4" t="s">
-        <v>29</v>
-      </c>
-      <c r="N4" t="s">
-        <v>30</v>
-      </c>
-      <c r="O4" t="s">
-        <v>31</v>
-      </c>
-      <c r="P4" t="s">
-        <v>32</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G5:G1004">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F1001">
       <formula1>ListProducerNames</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H5:I1004 M5:N1004">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:H1001 L2:M1001">
       <formula1>"0,1"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J5:J1004">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:I1001">
       <formula1>"0,5,10"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F5:F1004">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E1001">
       <formula1>ListProductGroupNames</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A3"/>
-  <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:A6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="19.875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" hidden="1">
-      <c r="A1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" hidden="1">
-      <c r="A2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" hidden="1">
-      <c r="A3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A3"/>
-  <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:A6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="13.375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" hidden="1">
-      <c r="A1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" hidden="1">
-      <c r="A2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" hidden="1">
-      <c r="A3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/StoreManagement.Website/Resource/ImportedTemplate/Products.xlsx
+++ b/StoreManagement.Website/Resource/ImportedTemplate/Products.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="23">
   <si>
     <t>VAT</t>
   </si>
@@ -67,6 +67,30 @@
   </si>
   <si>
     <t>Quản lý thuộc tính?</t>
+  </si>
+  <si>
+    <t>Áo thun BB - S</t>
+  </si>
+  <si>
+    <t>Áo thun BB - M</t>
+  </si>
+  <si>
+    <t>Áo thun</t>
+  </si>
+  <si>
+    <t>Quần tây BB - L</t>
+  </si>
+  <si>
+    <t>Quần tây</t>
+  </si>
+  <si>
+    <t>BB</t>
+  </si>
+  <si>
+    <t>Có</t>
+  </si>
+  <si>
+    <t>Không</t>
   </si>
 </sst>
 </file>
@@ -413,15 +437,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O1"/>
+  <dimension ref="A1:O4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="15.5703125" customWidth="1"/>
+    <col min="1" max="1" width="22.7109375" customWidth="1"/>
     <col min="2" max="2" width="15" customWidth="1"/>
     <col min="5" max="5" width="13.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.42578125" bestFit="1" customWidth="1"/>
@@ -481,18 +505,138 @@
         <v>10</v>
       </c>
     </row>
+    <row r="2" spans="1:15">
+      <c r="A2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2">
+        <v>400000</v>
+      </c>
+      <c r="D2">
+        <v>200000</v>
+      </c>
+      <c r="E2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>100</v>
+      </c>
+      <c r="L2" t="s">
+        <v>22</v>
+      </c>
+      <c r="M2" t="s">
+        <v>21</v>
+      </c>
+      <c r="O2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
+      <c r="A3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3">
+        <v>400000</v>
+      </c>
+      <c r="D3">
+        <v>200000</v>
+      </c>
+      <c r="E3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>100</v>
+      </c>
+      <c r="L3" t="s">
+        <v>22</v>
+      </c>
+      <c r="M3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
+      <c r="A4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4">
+        <v>500000</v>
+      </c>
+      <c r="D4">
+        <v>400000</v>
+      </c>
+      <c r="E4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H4" t="s">
+        <v>22</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>100</v>
+      </c>
+      <c r="L4" t="s">
+        <v>22</v>
+      </c>
+      <c r="M4" t="s">
+        <v>22</v>
+      </c>
+      <c r="O4">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F1001">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F1000">
       <formula1>ListProducerNames</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:H1001 L2:M1001">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L2:L1000 M4:M1000">
       <formula1>"0,1"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:I1001">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:I1000">
       <formula1>"0,5,10"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E1001">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E1000">
       <formula1>ListProductGroupNames</formula1>
     </dataValidation>
   </dataValidations>
